--- a/medicine/Enfance/Alice_et_le_Mauvais_Présage/Alice_et_le_Mauvais_Présage.xlsx
+++ b/medicine/Enfance/Alice_et_le_Mauvais_Présage/Alice_et_le_Mauvais_Présage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice_et_le_Mauvais_Pr%C3%A9sage</t>
+          <t>Alice_et_le_Mauvais_Présage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et le Mauvais Présage (titre original : The Sinister Omen, littéralement : Le Sinistre présage), est le soixante-septième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L’auteur de ce roman est Richard Ballad.
+Alice et le Mauvais Présage (titre original : The Sinister Omen, littéralement : Le Sinistre présage), est le soixante-septième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L’auteur de ce roman est Richard Ballad.
 Aux États-Unis, le roman a été publié pour la première fois en 1982 par Stratemeyer Syndicate, New York. En France, il a paru pour la première fois en 1986 chez Hachette Jeunesse dans la collection « Bibliothèque verte ». Il n'a plus été réédité en France depuis 1997.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice_et_le_Mauvais_Pr%C3%A9sage</t>
+          <t>Alice_et_le_Mauvais_Présage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur les éditions cartonnées non abrégées parues de 1986 à 1988 en langue française.
 Ricardo Segovia, un agent fédéral de Floride, demande l'aide de son ami avocat James Roy, le père d'Alice, pour son enquête concernant une contrebande de timbres rares. Alice et ses amis sont également invités dans la vaste propriété de M. Segovia, à Fort Lauderdale, la Venise américaine. Ned, Bob et Daniel décident de s'y rendre en voiture, tandis qu'Alice, Bess et Marion prendront l'hydravion. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice_et_le_Mauvais_Pr%C3%A9sage</t>
+          <t>Alice_et_le_Mauvais_Présage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,17 +563,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy, dix-huit ans, blonde, fille de l'avoué James Roy, orpheline de mère.
-James Roy, avocat [2] de renom, père d'Alice Roy, veuf.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy, dix-huit ans, blonde, fille de l'avoué James Roy, orpheline de mère.
+James Roy, avocat  de renom, père d'Alice Roy, veuf.
 Bess Taylor, jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb, jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
 Ned Nickerson, jeune homme brun et athlétique, ami et chevalier servant d'Alice, étudiant à l'université d'Emerson.
 Daniel Evans, ami et chevalier servant de Bess, camarade d'université de Ned.
 Bob Eddleton, ami et chevalier servant de Marion, camarade d'université de Ned.
-Sarah, la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.
-Personnages spécifiques à ce roman
-Ricardo Segovia, agent fédéral américain de Floride.
+Sarah, la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_le_Mauvais_Présage</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_le_Mauvais_Pr%C3%A9sage</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ricardo Segovia, agent fédéral américain de Floride.
 Eleanor Palmer, riche dame de 93 ans, habitant Fort Lauderdale.
 Susan McAfee, secrétaire et dame de compagnie de Eleanor Palmer.
 Errol Bigley, majordome d'Eleanor Palmer.
@@ -570,33 +623,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alice_et_le_Mauvais_Pr%C3%A9sage</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alice_et_le_Mauvais_Présage</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_le_Mauvais_Pr%C3%A9sage</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1986 : Hachette, collection Bibliothèque verte[3] cartonné (français, version originale). Illustré par Philippe Daure. Texte français de Lisa Rosenbaum. 20 chapitres. 158 p. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1986 : Hachette, collection Bibliothèque verte cartonné (français, version originale). Illustré par Philippe Daure. Texte français de Lisa Rosenbaum. 20 chapitres. 158 p. 
 1988 : Hachette, collection Bibliothèque verte no 442, souple (français, version originale). Illustré par Philippe Daure.</t>
         </is>
       </c>
